--- a/biology/Botanique/Musée_du_Bonsaï/Musée_du_Bonsaï.xlsx
+++ b/biology/Botanique/Musée_du_Bonsaï/Musée_du_Bonsaï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Bonsa%C3%AF</t>
+          <t>Musée_du_Bonsaï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le musée du Bonsaï était situé à Châtenay-Malabry dans les Hauts-de-Seine.
-Aménagé dans un parc à la japonaise sur près de 1 000 m2, le musée regroupe environ 9 000 bonsaï âgés de 6 ans à plus de 300 ans[1].
+Aménagé dans un parc à la japonaise sur près de 1 000 m2, le musée regroupe environ 9 000 bonsaï âgés de 6 ans à plus de 300 ans.
 Au 23 septembre 2016, le musée est fermé et doit laisser place à un programme immobilier en cours de commercialisation. Une partie de la collection a été rachetée par le Département des Hauts-de-Seine et est présentée dans les serres de l’Arboretum voisin. 
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Bonsa%C3%AF</t>
+          <t>Musée_du_Bonsaï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>« Site officiel »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)</t>
         </is>
